--- a/office/excel/exercises/descriptive-statistics/office-rental.xlsx
+++ b/office/excel/exercises/descriptive-statistics/office-rental.xlsx
@@ -8,15 +8,102 @@
   </bookViews>
   <sheets>
     <sheet name="Office rental" sheetId="1" r:id="rId1"/>
+    <sheet name="Solution" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>rental price per square metre</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>40-49</t>
+  </si>
+  <si>
+    <t>50-59</t>
+  </si>
+  <si>
+    <t>60-69</t>
+  </si>
+  <si>
+    <t>70-80</t>
+  </si>
+  <si>
+    <t>Count of rental price per square metre</t>
+  </si>
+  <si>
+    <t>Frequency table</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Fi</t>
+  </si>
+  <si>
+    <t>Using a pivot table</t>
+  </si>
+  <si>
+    <t>Percentage of office space that cost less than 40 €.</t>
+  </si>
+  <si>
+    <t>Percentage of office space that cost less than 60 €.</t>
+  </si>
+  <si>
+    <t>Percentage of office space that cost more than 50 €.</t>
+  </si>
+  <si>
+    <r>
+      <t>Number of buildings with a price between 30 and 50 €/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -24,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +121,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,15 +166,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -72,8 +201,761 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Histogram of rental prices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$D$4:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70-80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="74282880"/>
+        <c:axId val="74284416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74282880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rental</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> price (€/m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74284416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74284416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Absolute frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74282880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Cumulative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> histogram for rental prices</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$D$4:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70-80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="71726976"/>
+        <c:axId val="71728512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71726976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rental price (€/m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71728512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71728512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative absolute frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71726976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alf" refreshedDate="42387.364921759261" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="30">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:A31" sheet="Office rental"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="rental price per square metre" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="78" count="21">
+        <n v="70"/>
+        <n v="50"/>
+        <n v="76"/>
+        <n v="78"/>
+        <n v="27"/>
+        <n v="24"/>
+        <n v="21"/>
+        <n v="65"/>
+        <n v="75"/>
+        <n v="30"/>
+        <n v="60"/>
+        <n v="25"/>
+        <n v="40"/>
+        <n v="68"/>
+        <n v="56"/>
+        <n v="42"/>
+        <n v="77"/>
+        <n v="26"/>
+        <n v="55"/>
+        <n v="48"/>
+        <n v="54"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr autoStart="0" autoEnd="0" startNum="20" endNum="80" groupInterval="10"/>
+        <groupItems count="8">
+          <s v="&lt;20"/>
+          <s v="20-29"/>
+          <s v="30-39"/>
+          <s v="40-49"/>
+          <s v="50-59"/>
+          <s v="60-69"/>
+          <s v="70-80"/>
+          <s v="&gt;80"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" numFmtId="164" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of rental price per square metre" fld="0" subtotal="count" baseField="0" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -361,11 +1243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -525,4 +1405,242 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5">
+        <f>E4/E$10</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="G4">
+        <f>E4</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="7">
+        <f>G4/E$10</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="I4" s="10">
+        <f>G6-G4</f>
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F9" si="0">E5/E$10</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G5">
+        <f>G4+E5</f>
+        <v>8</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H9" si="1">G5/E$10</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G9" si="2">G5+E6</f>
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I6" s="9">
+        <f>1-H6</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E4:E9)</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>